--- a/Load/src/ontology/Ontorat/20150630_newTerms_ids.xlsx
+++ b/Load/src/ontology/Ontorat/20150630_newTerms_ids.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>Term ID</t>
   </si>
@@ -206,13 +206,25 @@
   </si>
   <si>
     <t>An average value for the number of clinical visits of a patient with malaria based on calendar years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A time datum for the duration of a patients participation in an investigation. </t>
+  </si>
+  <si>
+    <t>average number of clinical visits where data was collected for a patient, average over calendar years</t>
+  </si>
+  <si>
+    <t>average number of clinical visits where data was collected for patient and the patient was diagnosed with asymptomatic parasitemia, average over calendar years</t>
+  </si>
+  <si>
+    <t>average number of clinical visits where data was collected for patient nd the patient was diagnosed with malaria, average over calendar years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -222,11 +234,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -267,17 +274,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -594,23 +600,23 @@
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -623,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -633,7 +639,7 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -652,7 +658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -662,7 +668,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -681,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -691,7 +697,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -710,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -720,7 +726,7 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
@@ -739,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -749,7 +755,7 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
@@ -768,17 +774,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E7" t="s">
@@ -797,17 +803,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E8" t="s">
@@ -826,17 +832,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E9" t="s">
@@ -855,25 +861,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
@@ -884,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -894,14 +900,14 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>57</v>
+      <c r="F11" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
@@ -913,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -923,14 +929,14 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>60</v>
+      <c r="F12" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
@@ -942,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -952,14 +958,14 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
-        <v>63</v>
+      <c r="F13" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>15</v>
@@ -971,276 +977,106 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>